--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1334634.089285261</v>
+        <v>1438813.723736332</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1134222.401358595</v>
+        <v>1134222.401358593</v>
       </c>
     </row>
     <row r="9">
@@ -662,10 +664,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>310.4203810663442</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -707,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>16.18906253498139</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -741,7 +743,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -786,7 +788,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>61.36917500887014</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>131.5522128412692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -953,7 +955,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>374.3724651321492</v>
+        <v>319.3908819388033</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>70.83121064819285</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>108.6892847025052</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1148,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>212.1989152844492</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>345.8079317615164</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>13.13397779057886</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>123.6083483359161</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,13 +1372,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722596</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1525,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>116.0096736397294</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>21.31870002049637</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881266</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1777,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>43.61939039064413</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,10 +1824,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>195.1953445940036</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1938,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>77.17238036237218</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012548</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>65.31126771337325</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,16 +2061,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2251,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>135.009827497233</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,19 +2295,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>50.41300157618566</v>
       </c>
     </row>
     <row r="23">
@@ -2369,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2381,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182169</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>145.6584704334618</v>
       </c>
       <c r="H25" t="n">
-        <v>101.4278957699466</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2539,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2713,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>58.78278924584324</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2773,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>199.1717802171698</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2950,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>8.784245657022892</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2962,7 +2964,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>101.4278957699515</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3007,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3080,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3193,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3247,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>183.7084260806651</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>65.31126771337325</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>106.6049356664959</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3478,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>170.4845588958727</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3554,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3566,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3658,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>166.5960220979549</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>136.4226250355559</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3901,13 +3903,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>59.64073143311631</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3946,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>109.9946371007651</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4132,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4186,22 +4188,22 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>199.1717802171698</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>177.5944581379146</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1914.669427940025</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C2" t="n">
-        <v>1545.706910999613</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4325,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520487</v>
+        <v>3103.275485574221</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176916</v>
+        <v>3103.275485574221</v>
       </c>
       <c r="W2" t="n">
-        <v>2678.274518176916</v>
+        <v>2750.506830304106</v>
       </c>
       <c r="X2" t="n">
-        <v>2304.808759915837</v>
+        <v>2377.041072043026</v>
       </c>
       <c r="Y2" t="n">
-        <v>1914.669427940025</v>
+        <v>1986.901740067214</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>128.5011820977088</v>
+        <v>518.4459618444151</v>
       </c>
       <c r="C4" t="n">
-        <v>66.5121164321834</v>
+        <v>349.5097789165083</v>
       </c>
       <c r="D4" t="n">
-        <v>66.5121164321834</v>
+        <v>199.3931395041725</v>
       </c>
       <c r="E4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S4" t="n">
-        <v>639.3706644025392</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T4" t="n">
-        <v>417.6040489720652</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U4" t="n">
-        <v>128.5011820977088</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V4" t="n">
-        <v>128.5011820977088</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W4" t="n">
-        <v>128.5011820977088</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X4" t="n">
-        <v>128.5011820977088</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y4" t="n">
-        <v>128.5011820977088</v>
+        <v>700.0944266746549</v>
       </c>
     </row>
     <row r="5">
@@ -4562,13 +4564,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4583,34 +4585,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>2029.572515263129</v>
       </c>
       <c r="Y5" t="n">
-        <v>1320.35562273557</v>
+        <v>1706.955462799692</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>310.7277411117484</v>
+        <v>500.476813167026</v>
       </c>
       <c r="C7" t="n">
-        <v>310.7277411117484</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="D7" t="n">
-        <v>310.7277411117484</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="E7" t="n">
-        <v>310.7277411117484</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
@@ -4750,25 +4752,25 @@
         <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>759.5098711532959</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T7" t="n">
-        <v>759.5098711532959</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U7" t="n">
-        <v>759.5098711532959</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="V7" t="n">
-        <v>759.5098711532959</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="W7" t="n">
-        <v>759.5098711532959</v>
+        <v>721.2693923105561</v>
       </c>
       <c r="X7" t="n">
-        <v>531.5203202552785</v>
+        <v>721.2693923105561</v>
       </c>
       <c r="Y7" t="n">
-        <v>310.7277411117484</v>
+        <v>500.476813167026</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>1892.963660013481</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1892.963660013481</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1534.697961406731</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1148.909708808487</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>737.9238040188791</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>322.8513538638755</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4838,16 +4840,16 @@
         <v>3009.337405520487</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176916</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906802</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X8" t="n">
-        <v>2325.505862906802</v>
+        <v>2283.102991989293</v>
       </c>
       <c r="Y8" t="n">
-        <v>1976.204921733553</v>
+        <v>1892.963660013481</v>
       </c>
     </row>
     <row r="9">
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>376.7853475753374</v>
+        <v>360.3052168711167</v>
       </c>
       <c r="C10" t="n">
-        <v>376.7853475753374</v>
+        <v>191.3690339432098</v>
       </c>
       <c r="D10" t="n">
-        <v>226.6687081630017</v>
+        <v>191.3690339432098</v>
       </c>
       <c r="E10" t="n">
-        <v>226.6687081630017</v>
+        <v>191.3690339432098</v>
       </c>
       <c r="F10" t="n">
-        <v>79.77876066509134</v>
+        <v>191.3690339432098</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>191.3690339432098</v>
       </c>
       <c r="H10" t="n">
         <v>66.5121164321834</v>
@@ -4984,28 +4986,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>541.9536817013565</v>
       </c>
       <c r="V10" t="n">
-        <v>666.202517612298</v>
+        <v>541.9536817013565</v>
       </c>
       <c r="W10" t="n">
-        <v>376.7853475753374</v>
+        <v>541.9536817013565</v>
       </c>
       <c r="X10" t="n">
-        <v>376.7853475753374</v>
+        <v>541.9536817013565</v>
       </c>
       <c r="Y10" t="n">
-        <v>376.7853475753374</v>
+        <v>541.9536817013565</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5033,13 +5035,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5048,43 +5050,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756264</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756264</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913849</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417936</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972543</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2515.675093211829</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>779.6143379232836</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232836</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>140.7528025687995</v>
+        <v>140.7528025687997</v>
       </c>
       <c r="K13" t="n">
-        <v>296.765736413132</v>
+        <v>296.7657364131323</v>
       </c>
       <c r="L13" t="n">
-        <v>526.3143760629331</v>
+        <v>526.3143760629337</v>
       </c>
       <c r="M13" t="n">
-        <v>771.5995144936164</v>
+        <v>771.5995144936172</v>
       </c>
       <c r="N13" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O13" t="n">
-        <v>1227.027877484369</v>
+        <v>1227.02787748437</v>
       </c>
       <c r="P13" t="n">
-        <v>1386.046835377027</v>
+        <v>1386.046835377028</v>
       </c>
       <c r="Q13" t="n">
-        <v>1440.555541309952</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R13" t="n">
-        <v>1440.555541309952</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S13" t="n">
-        <v>1440.555541309952</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T13" t="n">
-        <v>1440.555541309952</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U13" t="n">
-        <v>1151.48031465415</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="V13" t="n">
-        <v>896.7958264482628</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="W13" t="n">
-        <v>779.6143379232836</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="X13" t="n">
-        <v>779.6143379232836</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>779.6143379232836</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,52 +5266,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.388077746847</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913854</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589157</v>
+        <v>738.7889117913854</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143764</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143764</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P15" t="n">
-        <v>2297.690135143764</v>
+        <v>2341.919755080347</v>
       </c>
       <c r="Q15" t="n">
-        <v>2530.951795518646</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>484.8112968429802</v>
+        <v>137.8766533415518</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>137.8766533415518</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>137.8766533415518</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>137.8766533415518</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>137.8766533415518</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>137.8766533415518</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>137.8766533415518</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>140.7528025687995</v>
+        <v>140.7528025687997</v>
       </c>
       <c r="K16" t="n">
-        <v>296.7657364131321</v>
+        <v>296.7657364131323</v>
       </c>
       <c r="L16" t="n">
-        <v>526.3143760629332</v>
+        <v>526.3143760629337</v>
       </c>
       <c r="M16" t="n">
-        <v>771.5995144936165</v>
+        <v>771.5995144936172</v>
       </c>
       <c r="N16" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O16" t="n">
-        <v>1227.027877484369</v>
+        <v>1227.02787748437</v>
       </c>
       <c r="P16" t="n">
-        <v>1386.046835377027</v>
+        <v>1386.046835377028</v>
       </c>
       <c r="Q16" t="n">
-        <v>1440.555541309952</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R16" t="n">
-        <v>1373.509837562355</v>
+        <v>1373.509837562356</v>
       </c>
       <c r="S16" t="n">
-        <v>1190.655003217259</v>
+        <v>1190.65500321726</v>
       </c>
       <c r="T16" t="n">
-        <v>971.0535382402002</v>
+        <v>971.0535382402015</v>
       </c>
       <c r="U16" t="n">
-        <v>681.9783115843979</v>
+        <v>681.9783115843993</v>
       </c>
       <c r="V16" t="n">
-        <v>484.8112968429802</v>
+        <v>427.2938233785125</v>
       </c>
       <c r="W16" t="n">
-        <v>484.8112968429802</v>
+        <v>137.8766533415518</v>
       </c>
       <c r="X16" t="n">
-        <v>484.8112968429802</v>
+        <v>137.8766533415518</v>
       </c>
       <c r="Y16" t="n">
-        <v>484.8112968429802</v>
+        <v>137.8766533415518</v>
       </c>
     </row>
     <row r="17">
@@ -5507,43 +5509,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>315.9123021921487</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>913.2907898187003</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373307</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>171.7685624039034</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="C19" t="n">
-        <v>171.7685624039034</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="D19" t="n">
-        <v>171.7685624039034</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="E19" t="n">
-        <v>171.7685624039034</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F19" t="n">
-        <v>171.7685624039034</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>171.7685624039034</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>171.7685624039034</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>140.7528025687996</v>
+        <v>140.7528025687997</v>
       </c>
       <c r="K19" t="n">
-        <v>296.7657364131321</v>
+        <v>296.7657364131323</v>
       </c>
       <c r="L19" t="n">
-        <v>526.3143760629333</v>
+        <v>526.3143760629337</v>
       </c>
       <c r="M19" t="n">
-        <v>771.5995144936167</v>
+        <v>771.5995144936172</v>
       </c>
       <c r="N19" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O19" t="n">
-        <v>1227.027877484369</v>
+        <v>1227.02787748437</v>
       </c>
       <c r="P19" t="n">
-        <v>1386.046835377027</v>
+        <v>1386.046835377028</v>
       </c>
       <c r="Q19" t="n">
-        <v>1440.555541309952</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R19" t="n">
-        <v>1373.509837562351</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S19" t="n">
-        <v>1190.655003217255</v>
+        <v>1374.584563821698</v>
       </c>
       <c r="T19" t="n">
-        <v>971.0535382401963</v>
+        <v>1154.983098844639</v>
       </c>
       <c r="U19" t="n">
-        <v>681.9783115843941</v>
+        <v>865.9078721888367</v>
       </c>
       <c r="V19" t="n">
-        <v>681.9783115843941</v>
+        <v>611.2233839829498</v>
       </c>
       <c r="W19" t="n">
-        <v>392.5611415474335</v>
+        <v>321.8062139459892</v>
       </c>
       <c r="X19" t="n">
-        <v>392.5611415474335</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.7685624039034</v>
+        <v>93.81666304797189</v>
       </c>
     </row>
     <row r="20">
@@ -5744,7 +5746,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192616</v>
@@ -5759,28 +5761,28 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>2381.235169913445</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>2715.159942084666</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>3210.485548300424</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M21" t="n">
-        <v>3807.864035926976</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N21" t="n">
-        <v>4435.461999481583</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>4690.833152398593</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>4690.833152398593</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>453.9887606863783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="C22" t="n">
-        <v>453.9887606863783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>453.9887606863783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>453.9887606863783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>453.9887606863783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>140.7528025687966</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K22" t="n">
-        <v>296.7657364131292</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L22" t="n">
-        <v>526.3143760629304</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M22" t="n">
-        <v>771.5995144936138</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N22" t="n">
-        <v>1018.909846477605</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O22" t="n">
-        <v>1227.027877484366</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P22" t="n">
-        <v>1386.046835377024</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q22" t="n">
-        <v>1440.55554130995</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R22" t="n">
-        <v>1373.509837562352</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="S22" t="n">
-        <v>1190.655003217257</v>
+        <v>1190.65500321726</v>
       </c>
       <c r="T22" t="n">
-        <v>971.0535382401979</v>
+        <v>971.0535382402009</v>
       </c>
       <c r="U22" t="n">
-        <v>681.9783115843957</v>
+        <v>971.0535382402009</v>
       </c>
       <c r="V22" t="n">
-        <v>681.9783115843957</v>
+        <v>971.0535382402009</v>
       </c>
       <c r="W22" t="n">
-        <v>681.9783115843957</v>
+        <v>681.6363682032402</v>
       </c>
       <c r="X22" t="n">
-        <v>453.9887606863783</v>
+        <v>453.6468173052228</v>
       </c>
       <c r="Y22" t="n">
-        <v>453.9887606863783</v>
+        <v>402.7245934908939</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5986,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
@@ -6017,16 +6019,16 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
         <v>3094.515198591809</v>
@@ -6063,31 +6065,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1671.859558793925</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>810.1249464381656</v>
+        <v>4180.965346599261</v>
       </c>
       <c r="C25" t="n">
-        <v>641.1887635102587</v>
+        <v>4012.029163671354</v>
       </c>
       <c r="D25" t="n">
-        <v>491.0721240979184</v>
+        <v>3861.912524259018</v>
       </c>
       <c r="E25" t="n">
-        <v>343.1590305155253</v>
+        <v>3861.912524259018</v>
       </c>
       <c r="F25" t="n">
-        <v>196.2690830176149</v>
+        <v>3715.022576761108</v>
       </c>
       <c r="G25" t="n">
-        <v>196.2690830176149</v>
+        <v>3567.8928086465</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>3426.180977488698</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>3344.094274136612</v>
       </c>
       <c r="J25" t="n">
-        <v>140.7528025687996</v>
+        <v>3391.030413657439</v>
       </c>
       <c r="K25" t="n">
-        <v>296.7657364131322</v>
+        <v>3547.043347501772</v>
       </c>
       <c r="L25" t="n">
-        <v>526.3143760629334</v>
+        <v>3776.591987151573</v>
       </c>
       <c r="M25" t="n">
-        <v>771.5995144936169</v>
+        <v>4021.877125582257</v>
       </c>
       <c r="N25" t="n">
-        <v>1018.909846477608</v>
+        <v>4269.187457566248</v>
       </c>
       <c r="O25" t="n">
-        <v>1227.027877484369</v>
+        <v>4477.305488573009</v>
       </c>
       <c r="P25" t="n">
-        <v>1386.046835377027</v>
+        <v>4636.324446465667</v>
       </c>
       <c r="Q25" t="n">
-        <v>1440.555541309953</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R25" t="n">
-        <v>1440.555541309953</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S25" t="n">
-        <v>1440.555541309953</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="T25" t="n">
-        <v>1440.555541309953</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.555541309953</v>
+        <v>4401.757925742791</v>
       </c>
       <c r="V25" t="n">
-        <v>1440.555541309953</v>
+        <v>4401.757925742791</v>
       </c>
       <c r="W25" t="n">
-        <v>1440.555541309953</v>
+        <v>4401.757925742791</v>
       </c>
       <c r="X25" t="n">
-        <v>1212.565990411935</v>
+        <v>4401.757925742791</v>
       </c>
       <c r="Y25" t="n">
-        <v>991.7734112684053</v>
+        <v>4180.965346599261</v>
       </c>
     </row>
     <row r="26">
@@ -6215,28 +6217,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>2381.235169913446</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>2876.560776129205</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>3473.939263755757</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>3473.939263755757</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>3997.308687575531</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>301.106311424146</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>301.106311424146</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>301.106311424146</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>153.1932178417529</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>153.1932178417529</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>153.1932178417529</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6409,25 +6411,25 @@
         <v>1440.555541309953</v>
       </c>
       <c r="S28" t="n">
-        <v>1257.700706964857</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T28" t="n">
-        <v>1257.700706964857</v>
+        <v>1220.954076332894</v>
       </c>
       <c r="U28" t="n">
-        <v>1257.700706964857</v>
+        <v>1220.954076332894</v>
       </c>
       <c r="V28" t="n">
-        <v>1257.700706964857</v>
+        <v>1220.954076332894</v>
       </c>
       <c r="W28" t="n">
-        <v>1257.700706964857</v>
+        <v>931.5369062959332</v>
       </c>
       <c r="X28" t="n">
-        <v>1257.700706964857</v>
+        <v>703.5473553979159</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>482.7547762543858</v>
       </c>
     </row>
     <row r="29">
@@ -6443,37 +6445,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>2381.235169913446</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L30" t="n">
-        <v>2876.560776129205</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M30" t="n">
-        <v>3473.939263755757</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N30" t="n">
-        <v>4101.537227310363</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>4653.44695754965</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>4690.833152398593</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4060.402557526807</v>
+        <v>714.8054182368654</v>
       </c>
       <c r="C31" t="n">
-        <v>3891.4663745989</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>3741.349735186564</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>3593.436641604171</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>3446.54669410626</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>3344.094274136613</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>3344.094274136613</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>3344.094274136613</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>3391.03041365744</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K31" t="n">
-        <v>3547.043347501773</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L31" t="n">
-        <v>3776.591987151574</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M31" t="n">
-        <v>4021.877125582258</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N31" t="n">
-        <v>4269.187457566249</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O31" t="n">
-        <v>4477.30548857301</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P31" t="n">
-        <v>4636.324446465668</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S31" t="n">
-        <v>4690.833152398593</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T31" t="n">
-        <v>4690.833152398593</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U31" t="n">
-        <v>4690.833152398593</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="V31" t="n">
-        <v>4690.833152398593</v>
+        <v>1185.871053104066</v>
       </c>
       <c r="W31" t="n">
-        <v>4690.833152398593</v>
+        <v>896.4538830671052</v>
       </c>
       <c r="X31" t="n">
-        <v>4462.843601500576</v>
+        <v>896.4538830671052</v>
       </c>
       <c r="Y31" t="n">
-        <v>4242.051022357046</v>
+        <v>896.4538830671052</v>
       </c>
     </row>
     <row r="32">
@@ -6680,16 +6682,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6734,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O33" t="n">
-        <v>2515.675093211831</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3492.007367719006</v>
+        <v>3344.094274136613</v>
       </c>
       <c r="C34" t="n">
-        <v>3492.007367719006</v>
+        <v>3344.094274136613</v>
       </c>
       <c r="D34" t="n">
-        <v>3492.007367719006</v>
+        <v>3344.094274136613</v>
       </c>
       <c r="E34" t="n">
         <v>3344.094274136613</v>
@@ -6880,28 +6882,28 @@
         <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>4471.231687421535</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>4182.156460765733</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>3927.471972559846</v>
       </c>
       <c r="W34" t="n">
-        <v>3492.007367719006</v>
+        <v>3638.054802522885</v>
       </c>
       <c r="X34" t="n">
-        <v>3492.007367719006</v>
+        <v>3410.065251624868</v>
       </c>
       <c r="Y34" t="n">
-        <v>3492.007367719006</v>
+        <v>3344.094274136613</v>
       </c>
     </row>
     <row r="35">
@@ -6926,37 +6928,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>484.8243144841095</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>980.1499206998682</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M36" t="n">
-        <v>1577.52840832642</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3918.741943257729</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="C37" t="n">
-        <v>3749.805760329822</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="D37" t="n">
-        <v>3599.689120917486</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="E37" t="n">
-        <v>3451.776027335093</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F37" t="n">
-        <v>3344.094274136613</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G37" t="n">
-        <v>3344.094274136613</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>3344.094274136613</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>3344.094274136613</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>3391.03041365744</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K37" t="n">
-        <v>3547.043347501773</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L37" t="n">
-        <v>3776.591987151574</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M37" t="n">
-        <v>4021.877125582258</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N37" t="n">
-        <v>4269.187457566249</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O37" t="n">
-        <v>4477.30548857301</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P37" t="n">
-        <v>4636.324446465668</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S37" t="n">
-        <v>4690.833152398593</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T37" t="n">
-        <v>4690.833152398593</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U37" t="n">
-        <v>4690.833152398593</v>
+        <v>1268.348916162607</v>
       </c>
       <c r="V37" t="n">
-        <v>4436.148664192707</v>
+        <v>1013.66442795672</v>
       </c>
       <c r="W37" t="n">
-        <v>4146.731494155746</v>
+        <v>724.247257919759</v>
       </c>
       <c r="X37" t="n">
-        <v>3918.741943257729</v>
+        <v>496.2577070217417</v>
       </c>
       <c r="Y37" t="n">
-        <v>3918.741943257729</v>
+        <v>275.4651278782115</v>
       </c>
     </row>
     <row r="38">
@@ -7172,22 +7174,22 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,10 +7210,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
         <v>3094.515198591809</v>
@@ -7263,7 +7265,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>641.8461362382112</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="C40" t="n">
-        <v>472.9099533103043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="D40" t="n">
-        <v>322.7933138979686</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="E40" t="n">
-        <v>322.7933138979686</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7357,25 +7359,25 @@
         <v>1440.555541309953</v>
       </c>
       <c r="S40" t="n">
-        <v>1440.555541309953</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="T40" t="n">
-        <v>1440.555541309953</v>
+        <v>1038.099241987798</v>
       </c>
       <c r="U40" t="n">
-        <v>1272.276731109998</v>
+        <v>749.0240153319962</v>
       </c>
       <c r="V40" t="n">
-        <v>1272.276731109998</v>
+        <v>611.2233839829498</v>
       </c>
       <c r="W40" t="n">
-        <v>1272.276731109998</v>
+        <v>321.8062139459892</v>
       </c>
       <c r="X40" t="n">
-        <v>1044.287180211981</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="Y40" t="n">
-        <v>823.4946010684509</v>
+        <v>93.81666304797187</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7393,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7497,19 +7499,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>448.8628671920292</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="C43" t="n">
-        <v>448.8628671920292</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
         <v>93.81666304797187</v>
@@ -7594,25 +7596,25 @@
         <v>1440.555541309953</v>
       </c>
       <c r="S43" t="n">
-        <v>1440.555541309953</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="T43" t="n">
-        <v>1220.954076332894</v>
+        <v>1038.099241987798</v>
       </c>
       <c r="U43" t="n">
-        <v>1220.954076332894</v>
+        <v>749.0240153319962</v>
       </c>
       <c r="V43" t="n">
-        <v>966.2695881270071</v>
+        <v>494.3395271261094</v>
       </c>
       <c r="W43" t="n">
-        <v>676.8524180900465</v>
+        <v>204.9223570891488</v>
       </c>
       <c r="X43" t="n">
-        <v>448.8628671920292</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="Y43" t="n">
-        <v>448.8628671920292</v>
+        <v>93.81666304797187</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7655,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7679,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7834,22 +7836,22 @@
         <v>1257.700706964857</v>
       </c>
       <c r="T46" t="n">
-        <v>1056.517090583878</v>
+        <v>1038.099241987798</v>
       </c>
       <c r="U46" t="n">
-        <v>1056.517090583878</v>
+        <v>858.7109004343494</v>
       </c>
       <c r="V46" t="n">
-        <v>1056.517090583878</v>
+        <v>604.0264122284625</v>
       </c>
       <c r="W46" t="n">
-        <v>1056.517090583878</v>
+        <v>314.6092421915019</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.517090583878</v>
+        <v>314.6092421915019</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>93.81666304797187</v>
       </c>
     </row>
   </sheetData>
@@ -23264,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>2.216893335571513e-12</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23413,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -23470,19 +23472,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>170.5133246968616</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>204.3909553685408</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23549,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23665,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>37.64644592792139</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,10 +23712,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>56.94229872982444</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23908,7 +23910,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>4.093455956193367</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>115.7150182882713</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24139,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>30.51431079503584</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>168.1716517759091</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>19.865667858807</v>
       </c>
       <c r="H25" t="n">
-        <v>38.86681707627727</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24420,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24427,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>81.51192360038064</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24649,10 +24651,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -24661,13 +24663,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.41287313492498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>158.4625754416049</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>64.09624252231737</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24895,16 +24897,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25081,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>102.8145722559259</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>153.2733856387215</v>
       </c>
     </row>
     <row r="35">
@@ -25202,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25309,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>38.81611235643537</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -25366,7 +25368,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>115.6999154933715</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -25567,7 +25569,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,25 +25599,25 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>119.5884522912892</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>115.7150182882721</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25789,13 +25791,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>88.97474158509604</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -25834,13 +25836,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>115.715018288272</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26020,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26074,22 +26076,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>18.23367011011845</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>108.5900162513296</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>881138.6510463719</v>
+        <v>881138.651046372</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>881138.6510463717</v>
+        <v>881138.6510463718</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>881138.6510463717</v>
+        <v>881138.6510463718</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>881138.6510463718</v>
+        <v>881138.6510463719</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>881138.6510463718</v>
+        <v>881138.6510463721</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>881138.651046372</v>
+        <v>881138.6510463718</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>881138.6510463717</v>
+        <v>881138.6510463719</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>881138.6510463719</v>
+        <v>881138.6510463718</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>881138.6510463719</v>
+        <v>881138.6510463718</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>881138.6510463719</v>
+        <v>881138.6510463718</v>
       </c>
     </row>
     <row r="16">
@@ -26314,16 +26316,16 @@
         <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="E2" t="n">
-        <v>489521.4728035396</v>
+        <v>489521.4728035398</v>
       </c>
       <c r="F2" t="n">
-        <v>489521.4728035396</v>
+        <v>489521.4728035395</v>
       </c>
       <c r="G2" t="n">
         <v>489521.4728035395</v>
@@ -26338,7 +26340,7 @@
         <v>489521.4728035397</v>
       </c>
       <c r="K2" t="n">
-        <v>489521.4728035396</v>
+        <v>489521.4728035397</v>
       </c>
       <c r="L2" t="n">
         <v>489521.4728035395</v>
@@ -26350,7 +26352,7 @@
         <v>489521.4728035397</v>
       </c>
       <c r="O2" t="n">
-        <v>489521.4728035395</v>
+        <v>489521.4728035396</v>
       </c>
       <c r="P2" t="n">
         <v>489521.4728035397</v>
@@ -26372,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073547</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405259</v>
       </c>
       <c r="E4" t="n">
-        <v>761.3882086835449</v>
+        <v>761.3882086835454</v>
       </c>
       <c r="F4" t="n">
-        <v>761.388208683545</v>
+        <v>761.3882086835454</v>
       </c>
       <c r="G4" t="n">
-        <v>761.388208683545</v>
+        <v>761.3882086835454</v>
       </c>
       <c r="H4" t="n">
-        <v>761.3882086835449</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="I4" t="n">
         <v>761.3882086835451</v>
@@ -26442,19 +26444,19 @@
         <v>761.3882086835451</v>
       </c>
       <c r="K4" t="n">
-        <v>761.388208683545</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="L4" t="n">
-        <v>761.388208683545</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="M4" t="n">
         <v>761.3882086835451</v>
       </c>
       <c r="N4" t="n">
-        <v>761.388208683545</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="O4" t="n">
-        <v>761.3882086835453</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="P4" t="n">
         <v>761.3882086835451</v>
@@ -26522,43 +26524,43 @@
         <v>-1017124.324227861</v>
       </c>
       <c r="C6" t="n">
-        <v>311620.4214997311</v>
+        <v>311620.4214997313</v>
       </c>
       <c r="D6" t="n">
-        <v>311620.4214997311</v>
+        <v>311620.421499731</v>
       </c>
       <c r="E6" t="n">
-        <v>62225.09296359427</v>
+        <v>62225.09296359369</v>
       </c>
       <c r="F6" t="n">
-        <v>387637.5547709488</v>
+        <v>387637.5547709489</v>
       </c>
       <c r="G6" t="n">
         <v>387637.5547709489</v>
       </c>
       <c r="H6" t="n">
-        <v>387637.5547709488</v>
+        <v>387637.5547709492</v>
       </c>
       <c r="I6" t="n">
-        <v>387637.5547709488</v>
+        <v>387637.5547709491</v>
       </c>
       <c r="J6" t="n">
-        <v>170106.3523736716</v>
+        <v>170106.3523736714</v>
       </c>
       <c r="K6" t="n">
-        <v>387637.5547709489</v>
+        <v>387637.554770949</v>
       </c>
       <c r="L6" t="n">
         <v>387637.5547709489</v>
       </c>
       <c r="M6" t="n">
-        <v>302582.5268354373</v>
+        <v>302582.5268354372</v>
       </c>
       <c r="N6" t="n">
         <v>387637.554770949</v>
       </c>
       <c r="O6" t="n">
-        <v>387637.5547709488</v>
+        <v>387637.5547709489</v>
       </c>
       <c r="P6" t="n">
         <v>387637.554770949</v>
@@ -26744,7 +26746,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26966,16 +26968,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,10 +27384,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>44.26266055433877</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27427,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>234.8061094239206</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>105.8776460897577</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>14.88174980529999</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27673,7 +27675,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>11.86547352390443</v>
+        <v>66.84705671725033</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,10 +27785,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27822,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>118.937814683249</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27834,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>177.8337136340858</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>82.40884910287122</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27910,16 +27912,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>40.43000689453714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>152.8918304684494</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>21.14666657840465</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28065,13 +28067,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28618,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28767,7 +28769,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>-3.770613451100265e-12</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -28849,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -28980,7 +28982,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>-1.476844879432945e-12</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29101,7 +29103,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -29199,7 +29201,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -31619,7 +31621,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>616.5397119226052</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862118</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>171.7382405950835</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>353.2560498238272</v>
       </c>
       <c r="R15" t="n">
-        <v>168.0123247135891</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>211.7351844430279</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R18" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32387,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32555,22 +32557,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>309.7666854143577</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565753</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32798,19 +32800,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>332.1692388321076</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,7 +33028,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,19 +33037,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>671.2522281007818</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33205,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33263,7 +33265,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>146.0225991093089</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,16 +33274,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33494,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,7 +33505,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>535.8585467435948</v>
       </c>
       <c r="P33" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,22 +33739,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>381.6404378718165</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33983,10 +33985,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34135,7 +34137,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175675</v>
@@ -34144,7 +34146,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34217,22 +34219,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N42" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34390,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34442,34 +34444,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35267,7 +35269,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>477.985332142731</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992796</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>37.76383318075324</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>47.41024194022997</v>
+        <v>47.41024194023008</v>
       </c>
       <c r="K13" t="n">
-        <v>157.5888220649823</v>
+        <v>157.5888220649825</v>
       </c>
       <c r="L13" t="n">
-        <v>231.8673127775769</v>
+        <v>231.8673127775771</v>
       </c>
       <c r="M13" t="n">
-        <v>247.7627660915993</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N13" t="n">
-        <v>249.8084161454455</v>
+        <v>249.8084161454457</v>
       </c>
       <c r="O13" t="n">
-        <v>210.2202333401628</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P13" t="n">
-        <v>160.6252099925837</v>
+        <v>160.6252099925839</v>
       </c>
       <c r="Q13" t="n">
-        <v>55.05929892214681</v>
+        <v>55.05929892214692</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>213.2742757378057</v>
       </c>
       <c r="R15" t="n">
-        <v>22.33282074962517</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>47.41024194022999</v>
+        <v>47.41024194023008</v>
       </c>
       <c r="K16" t="n">
-        <v>157.5888220649824</v>
+        <v>157.5888220649825</v>
       </c>
       <c r="L16" t="n">
-        <v>231.867312777577</v>
+        <v>231.8673127775771</v>
       </c>
       <c r="M16" t="n">
-        <v>247.7627660915994</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N16" t="n">
-        <v>249.8084161454456</v>
+        <v>249.8084161454457</v>
       </c>
       <c r="O16" t="n">
-        <v>210.2202333401628</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P16" t="n">
-        <v>160.6252099925838</v>
+        <v>160.6252099925839</v>
       </c>
       <c r="Q16" t="n">
-        <v>55.05929892214687</v>
+        <v>55.05929892214692</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>73.18080466315369</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>47.41024194022999</v>
+        <v>47.41024194023008</v>
       </c>
       <c r="K19" t="n">
-        <v>157.5888220649824</v>
+        <v>157.5888220649825</v>
       </c>
       <c r="L19" t="n">
-        <v>231.867312777577</v>
+        <v>231.8673127775771</v>
       </c>
       <c r="M19" t="n">
-        <v>247.7627660915994</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N19" t="n">
-        <v>249.8084161454456</v>
+        <v>249.8084161454457</v>
       </c>
       <c r="O19" t="n">
-        <v>210.2202333401628</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P19" t="n">
-        <v>160.6252099925838</v>
+        <v>160.6252099925839</v>
       </c>
       <c r="Q19" t="n">
-        <v>55.05929892214687</v>
+        <v>55.05929892214692</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36203,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>171.2123056344834</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121309</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>47.41024194022701</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K22" t="n">
         <v>157.5888220649824</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36446,19 +36448,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>189.5729943876631</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,19 +36685,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>528.6559836563374</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36913,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>8.181160134949948</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,16 +36922,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,7 +37153,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>393.2623022991504</v>
       </c>
       <c r="P33" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37385,22 +37387,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>243.7989988974575</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37631,10 +37633,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37783,7 +37785,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37792,7 +37794,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37865,22 +37867,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N42" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1438813.723736332</v>
+        <v>1432886.276209689</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13476767.25690909</v>
+        <v>12744834.49889432</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1134222.401358593</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10311469.78615534</v>
+        <v>10677205.42277561</v>
       </c>
     </row>
     <row r="11">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>79.76470074482967</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>16.18906253498139</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -825,7 +825,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>131.5522128412692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.8312030514733</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>75.4571321610379</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -955,7 +955,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>319.3908819388033</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1068,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>86.10567404108015</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>108.6892847025052</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>212.1989152844492</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>9.858513800116516</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>72.0880274467727</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>123.6083483359161</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1542,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>55.52079624060465</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>21.31870002049637</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>43.61939039064413</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,19 +1821,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>141.3831318263065</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>115.7063133373722</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>65.31126771337325</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2134,10 +2134,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,10 +2295,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>50.41300157618566</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="G25" t="n">
-        <v>145.6584704334618</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>58.78278924584324</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>8.784245657022892</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>9.14614278817986</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,22 +3189,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>95.05806357631816</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>65.31126771337325</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>170.4845588958727</v>
+        <v>90.14863908058143</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>136.4226250355559</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>109.9946371007651</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>177.5944581379146</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1986.901740067214</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="D2" t="n">
         <v>1617.939223126803</v>
@@ -4330,22 +4330,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296687</v>
@@ -4357,25 +4357,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3103.275485574221</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>3103.275485574221</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2750.506830304106</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2377.041072043026</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1986.901740067214</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="3">
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>518.4459618444151</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C4" t="n">
-        <v>349.5097789165083</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D4" t="n">
-        <v>199.3931395041725</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E4" t="n">
         <v>66.51211643218343</v>
@@ -4521,19 +4521,19 @@
         <v>920.887005818185</v>
       </c>
       <c r="U4" t="n">
-        <v>920.887005818185</v>
+        <v>640.249426978313</v>
       </c>
       <c r="V4" t="n">
-        <v>920.887005818185</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="W4" t="n">
-        <v>920.887005818185</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="X4" t="n">
-        <v>920.887005818185</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="Y4" t="n">
-        <v>700.0944266746549</v>
+        <v>385.5649387724261</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1320.35562273557</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C5" t="n">
-        <v>1320.35562273557</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.038273524209</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2029.572515263129</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>1706.955462799692</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="6">
@@ -4637,22 +4637,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>500.476813167026</v>
+        <v>362.8459426266614</v>
       </c>
       <c r="C7" t="n">
-        <v>331.5406302391191</v>
+        <v>362.8459426266614</v>
       </c>
       <c r="D7" t="n">
-        <v>331.5406302391191</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="E7" t="n">
-        <v>331.5406302391191</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G7" t="n">
-        <v>163.837793613838</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>833.9115774938616</v>
       </c>
       <c r="S7" t="n">
-        <v>831.0565485757129</v>
+        <v>833.9115774938616</v>
       </c>
       <c r="T7" t="n">
-        <v>831.0565485757129</v>
+        <v>833.9115774938616</v>
       </c>
       <c r="U7" t="n">
-        <v>831.0565485757129</v>
+        <v>833.9115774938616</v>
       </c>
       <c r="V7" t="n">
-        <v>831.0565485757129</v>
+        <v>833.9115774938616</v>
       </c>
       <c r="W7" t="n">
-        <v>721.2693923105561</v>
+        <v>544.4944074569011</v>
       </c>
       <c r="X7" t="n">
-        <v>721.2693923105561</v>
+        <v>544.4944074569011</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.476813167026</v>
+        <v>544.4944074569011</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1892.963660013481</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>1892.963660013481</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>1534.697961406731</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>1148.909708808487</v>
+        <v>488.5300673363905</v>
       </c>
       <c r="F8" t="n">
-        <v>737.9238040188791</v>
+        <v>77.54416254678289</v>
       </c>
       <c r="G8" t="n">
-        <v>322.8513538638755</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3315.647726861579</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3315.647726861579</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520487</v>
+        <v>3062.117250135415</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520487</v>
+        <v>2731.054362791845</v>
       </c>
       <c r="W8" t="n">
-        <v>2656.568750250373</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="X8" t="n">
-        <v>2283.102991989293</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y8" t="n">
-        <v>1892.963660013481</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="9">
@@ -4874,16 +4874,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>360.3052168711167</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>191.3690339432098</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>191.3690339432098</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>191.3690339432098</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>191.3690339432098</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>191.3690339432098</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>541.9536817013565</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V10" t="n">
-        <v>541.9536817013565</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W10" t="n">
-        <v>541.9536817013565</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X10" t="n">
-        <v>541.9536817013565</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y10" t="n">
-        <v>541.9536817013565</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="11">
@@ -5038,25 +5038,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694708</v>
@@ -5068,13 +5068,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5117,28 +5117,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797189</v>
@@ -5199,52 +5199,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>140.7528025687997</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>296.7657364131323</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>526.3143760629337</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>771.5995144936172</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1018.909846477608</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>1227.02787748437</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>1386.046835377028</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>1440.555541309953</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>1440.555541309953</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>1440.555541309953</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T13" t="n">
-        <v>1440.555541309953</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U13" t="n">
-        <v>1440.555541309953</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V13" t="n">
-        <v>1440.555541309953</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1440.555541309953</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,52 +5266,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913854</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>738.7889117913854</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1366.386875345992</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1918.296605585279</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2341.919755080347</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>137.8766533415518</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>137.8766533415518</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D16" t="n">
-        <v>137.8766533415518</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E16" t="n">
-        <v>137.8766533415518</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>137.8766533415518</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>137.8766533415518</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>137.8766533415518</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>140.7528025687997</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>296.7657364131323</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>526.3143760629337</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>771.5995144936172</v>
+        <v>1248.150240910813</v>
       </c>
       <c r="N16" t="n">
-        <v>1018.909846477608</v>
+        <v>1665.560112570822</v>
       </c>
       <c r="O16" t="n">
-        <v>1227.02787748437</v>
+        <v>2035.089393279807</v>
       </c>
       <c r="P16" t="n">
-        <v>1386.046835377028</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q16" t="n">
-        <v>1440.555541309953</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R16" t="n">
-        <v>1373.509837562356</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="S16" t="n">
-        <v>1190.65500321726</v>
+        <v>2264.108249235169</v>
       </c>
       <c r="T16" t="n">
-        <v>971.0535382402015</v>
+        <v>2044.50678425811</v>
       </c>
       <c r="U16" t="n">
-        <v>681.9783115843993</v>
+        <v>1901.695539989114</v>
       </c>
       <c r="V16" t="n">
-        <v>427.2938233785125</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="W16" t="n">
-        <v>137.8766533415518</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X16" t="n">
-        <v>137.8766533415518</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y16" t="n">
-        <v>137.8766533415518</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,22 +5527,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.81666304797189</v>
+        <v>991.7436897307817</v>
       </c>
       <c r="C19" t="n">
-        <v>93.81666304797189</v>
+        <v>822.8075068028749</v>
       </c>
       <c r="D19" t="n">
-        <v>93.81666304797189</v>
+        <v>672.6908673905391</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797189</v>
+        <v>524.777773808146</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797189</v>
+        <v>377.8878263102356</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>210.6917270251155</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>140.7528025687997</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>296.7657364131323</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>526.3143760629337</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>771.5995144936172</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1018.909846477608</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>1227.02787748437</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>1386.046835377028</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>1440.555541309953</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>1440.555541309953</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>1374.584563821698</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1154.983098844639</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>865.9078721888367</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>611.2233839829498</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>321.8062139459892</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>93.81666304797189</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.81666304797189</v>
+        <v>1173.392154561021</v>
       </c>
     </row>
     <row r="20">
@@ -5746,43 +5746,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>140.7528025687996</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>296.7657364131322</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>526.3143760629334</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>771.5995144936169</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1018.909846477608</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>1227.027877484369</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>1386.046835377027</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>1440.555541309953</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>1373.509837562355</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>1190.65500321726</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>971.0535382402009</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>971.0535382402009</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>971.0535382402009</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>681.6363682032402</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>453.6468173052228</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>402.7245934908939</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5983,40 +5983,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4180.965346599261</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C25" t="n">
-        <v>4012.029163671354</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D25" t="n">
-        <v>3861.912524259018</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E25" t="n">
-        <v>3861.912524259018</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F25" t="n">
-        <v>3715.022576761108</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>3567.8928086465</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>3426.180977488698</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>3344.094274136612</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>3391.030413657439</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>3547.043347501772</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>3776.591987151573</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>4021.877125582257</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>4269.187457566248</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>4477.305488573009</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>4636.324446465667</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>4690.833152398593</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>4690.833152398593</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>4401.757925742791</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>4401.757925742791</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>4401.757925742791</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>4401.757925742791</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y25" t="n">
-        <v>4180.965346599261</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
@@ -6241,34 +6241,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>301.106311424146</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C28" t="n">
-        <v>301.106311424146</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D28" t="n">
-        <v>301.106311424146</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>153.1932178417529</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F28" t="n">
-        <v>153.1932178417529</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G28" t="n">
-        <v>153.1932178417529</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>140.7528025687996</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>296.7657364131322</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>526.3143760629334</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>771.5995144936169</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1018.909846477608</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>1227.027877484369</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>1386.046835377027</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>1440.555541309953</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>1440.555541309953</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S28" t="n">
-        <v>1440.555541309953</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T28" t="n">
-        <v>1220.954076332894</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U28" t="n">
-        <v>1220.954076332894</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V28" t="n">
-        <v>1220.954076332894</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W28" t="n">
-        <v>931.5369062959332</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X28" t="n">
-        <v>703.5473553979159</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y28" t="n">
-        <v>482.7547762543858</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,61 +6451,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>251.562654109227</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>714.8054182368654</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>244.7670222746423</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168404</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>140.7528025687996</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>296.7657364131322</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>526.3143760629334</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>771.5995144936169</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1018.909846477608</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>1227.027877484369</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>1386.046835377027</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>1440.555541309953</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>1440.555541309953</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>1440.555541309953</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1440.555541309953</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1440.555541309953</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1185.871053104066</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>896.4538830671052</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>896.4538830671052</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y31" t="n">
-        <v>896.4538830671052</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="32">
@@ -6682,37 +6682,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3344.094274136613</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C34" t="n">
-        <v>3344.094274136613</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D34" t="n">
-        <v>3344.094274136613</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E34" t="n">
-        <v>3344.094274136613</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F34" t="n">
-        <v>3344.094274136613</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>3344.094274136613</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>3344.094274136613</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>3344.094274136613</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>3391.03041365744</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>3547.043347501773</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3776.591987151574</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>4021.877125582258</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>4269.187457566249</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4477.30548857301</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4636.324446465668</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>4690.833152398593</v>
+        <v>2350.944837543576</v>
       </c>
       <c r="T34" t="n">
-        <v>4471.231687421535</v>
+        <v>2131.343372566517</v>
       </c>
       <c r="U34" t="n">
-        <v>4182.156460765733</v>
+        <v>1842.268145910715</v>
       </c>
       <c r="V34" t="n">
-        <v>3927.471972559846</v>
+        <v>1587.583657704828</v>
       </c>
       <c r="W34" t="n">
-        <v>3638.054802522885</v>
+        <v>1298.166487667867</v>
       </c>
       <c r="X34" t="n">
-        <v>3410.065251624868</v>
+        <v>1070.17693676985</v>
       </c>
       <c r="Y34" t="n">
-        <v>3344.094274136613</v>
+        <v>849.3843576263199</v>
       </c>
     </row>
     <row r="35">
@@ -6928,19 +6928,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
@@ -6952,13 +6952,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>93.81666304797186</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C37" t="n">
-        <v>93.81666304797186</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D37" t="n">
-        <v>93.81666304797186</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E37" t="n">
-        <v>93.81666304797186</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>140.7528025687996</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>296.7657364131322</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>526.3143760629334</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>771.5995144936169</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1018.909846477608</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>1227.027877484369</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>1386.046835377027</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>1440.555541309953</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>1440.555541309953</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>1440.555541309953</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1440.555541309953</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U37" t="n">
-        <v>1268.348916162607</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V37" t="n">
-        <v>1013.66442795672</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W37" t="n">
-        <v>724.247257919759</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X37" t="n">
-        <v>496.2577070217417</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y37" t="n">
-        <v>275.4651278782115</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819236</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111692</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075785</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>93.81666304797187</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D40" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>140.7528025687996</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>296.7657364131322</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L40" t="n">
-        <v>526.3143760629334</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>771.5995144936169</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1018.909846477608</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>1227.027877484369</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>1386.046835377027</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>1440.555541309953</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>1440.555541309953</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>1257.700706964857</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1038.099241987798</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>749.0240153319962</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>611.2233839829498</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>321.8062139459892</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>93.81666304797187</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>93.81666304797187</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7402,31 +7402,31 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>93.81666304797187</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>140.7528025687996</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>296.7657364131322</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>526.3143760629334</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>771.5995144936169</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1018.909846477608</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>1227.027877484369</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>1386.046835377027</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>1440.555541309953</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>1440.555541309953</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>1257.700706964857</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1038.099241987798</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>749.0240153319962</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>494.3395271261094</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>204.9223570891488</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>93.81666304797187</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>93.81666304797187</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7636,25 +7636,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>93.81666304797187</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>140.7528025687996</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>296.7657364131322</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>526.3143760629334</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>771.5995144936169</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1018.909846477608</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>1227.027877484369</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>1386.046835377027</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>1440.555541309953</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>1440.555541309953</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>1257.700706964857</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1038.099241987798</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>858.7109004343494</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>604.0264122284625</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>314.6092421915019</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>314.6092421915019</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>93.81666304797187</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -23466,22 +23466,22 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>204.3909553685408</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>37.64644592792139</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>144.8013425629377</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>24.58839950885165</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>115.7150182882713</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24183,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>168.1716517759091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>136.2749052347514</v>
       </c>
       <c r="G25" t="n">
-        <v>19.865667858807</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>81.51192360038064</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>158.4625754416049</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038566</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,25 +25077,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>85.96822242532643</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.2733856387215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>115.6999154933715</v>
+        <v>196.0358353086627</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>115.7150182882721</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>115.715018288272</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>108.5900162513296</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>881138.651046372</v>
+        <v>923288.5237765647</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>881138.6510463718</v>
+        <v>923288.523776565</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>881138.6510463718</v>
+        <v>923288.5237765649</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>881138.6510463719</v>
+        <v>923288.5237765647</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>881138.6510463721</v>
+        <v>923288.5237765649</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>881138.6510463719</v>
+        <v>923288.5237765647</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>881138.6510463718</v>
+        <v>923288.5237765649</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>881138.6510463719</v>
+        <v>923288.5237765649</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>881138.6510463718</v>
+        <v>923288.5237765649</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>881138.6510463718</v>
+        <v>923288.5237765649</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>881138.6510463718</v>
+        <v>923288.5237765647</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>881138.6510463718</v>
+        <v>923288.5237765649</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>513151.1061651771</v>
+      </c>
+      <c r="C2" t="n">
         <v>513151.106165177</v>
       </c>
-      <c r="C2" t="n">
-        <v>513151.1061651771</v>
-      </c>
       <c r="D2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
-        <v>489521.4728035398</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="F2" t="n">
-        <v>489521.4728035395</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="G2" t="n">
-        <v>489521.4728035395</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="H2" t="n">
-        <v>489521.4728035397</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="I2" t="n">
-        <v>489521.4728035395</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="J2" t="n">
-        <v>489521.4728035397</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="K2" t="n">
-        <v>489521.4728035397</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="L2" t="n">
-        <v>489521.4728035395</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="M2" t="n">
-        <v>489521.4728035397</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="N2" t="n">
-        <v>489521.4728035397</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="O2" t="n">
-        <v>489521.4728035396</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="P2" t="n">
-        <v>489521.4728035397</v>
+        <v>504466.6248062539</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.209268702950794e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>93596.74410405252</v>
+      </c>
+      <c r="C4" t="n">
         <v>93596.7441040525</v>
       </c>
-      <c r="C4" t="n">
-        <v>93596.74410405257</v>
-      </c>
       <c r="D4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="E4" t="n">
-        <v>761.3882086835454</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="F4" t="n">
-        <v>761.3882086835454</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
-        <v>761.3882086835454</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
-        <v>761.3882086835451</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="I4" t="n">
-        <v>761.3882086835451</v>
+        <v>16046.58397189193</v>
       </c>
       <c r="J4" t="n">
-        <v>761.3882086835451</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
-        <v>761.3882086835451</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
-        <v>761.3882086835451</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
-        <v>761.3882086835451</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="N4" t="n">
-        <v>761.3882086835451</v>
+        <v>16046.58397189203</v>
       </c>
       <c r="O4" t="n">
-        <v>761.3882086835451</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="P4" t="n">
-        <v>761.3882086835451</v>
+        <v>16046.58397189197</v>
       </c>
     </row>
     <row r="5">
@@ -26524,46 +26524,46 @@
         <v>-1017124.324227861</v>
       </c>
       <c r="C6" t="n">
+        <v>311620.4214997311</v>
+      </c>
+      <c r="D6" t="n">
         <v>311620.4214997313</v>
       </c>
-      <c r="D6" t="n">
-        <v>311620.421499731</v>
-      </c>
       <c r="E6" t="n">
-        <v>62225.09296359369</v>
+        <v>61537.66994874246</v>
       </c>
       <c r="F6" t="n">
-        <v>387637.5547709489</v>
+        <v>386950.1317560978</v>
       </c>
       <c r="G6" t="n">
-        <v>387637.5547709489</v>
+        <v>386950.1317560979</v>
       </c>
       <c r="H6" t="n">
-        <v>387637.5547709492</v>
+        <v>386950.1317560975</v>
       </c>
       <c r="I6" t="n">
-        <v>387637.5547709491</v>
+        <v>386950.1317560975</v>
       </c>
       <c r="J6" t="n">
-        <v>170106.3523736714</v>
+        <v>169418.9293588201</v>
       </c>
       <c r="K6" t="n">
-        <v>387637.554770949</v>
+        <v>386950.1317560977</v>
       </c>
       <c r="L6" t="n">
-        <v>387637.5547709489</v>
+        <v>386950.1317560977</v>
       </c>
       <c r="M6" t="n">
-        <v>302582.5268354372</v>
+        <v>301895.1038205858</v>
       </c>
       <c r="N6" t="n">
-        <v>387637.554770949</v>
+        <v>386950.1317560977</v>
       </c>
       <c r="O6" t="n">
-        <v>387637.5547709489</v>
+        <v>386950.1317560978</v>
       </c>
       <c r="P6" t="n">
-        <v>387637.554770949</v>
+        <v>386950.1317560978</v>
       </c>
     </row>
   </sheetData>
@@ -26792,10 +26792,10 @@
         <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26804,19 +26804,19 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="I4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="I4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099648</v>
-      </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>274.9183408758533</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>234.8061094239206</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27545,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>14.88174980529999</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27593,10 +27593,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>8.380635154139554</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>307.2767095024427</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>66.84705671725033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27788,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>2.82647862896718</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>177.8337136340858</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>82.40884910287122</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>99.32924798805932</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>107.7439527351646</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>21.14666657840465</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28517,7 +28517,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31612,7 +31612,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
         <v>609.6478166837925</v>
@@ -31837,31 +31837,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>616.5397119226052</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32074,31 +32074,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>353.2560498238272</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32557,22 +32557,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>309.7666854143577</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>535.8585467435948</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067208</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>575.5951359912046</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35260,7 +35260,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
         <v>478.3061046004592</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>477.985332142731</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>47.41024194023008</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>157.5888220649825</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>231.8673127775771</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>247.7627660915995</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>249.8084161454457</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>210.220233340163</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>160.6252099925839</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>55.05929892214692</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>213.2742757378057</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>47.41024194023008</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>157.5888220649825</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>231.8673127775771</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>247.7627660915995</v>
+        <v>426.2724270010493</v>
       </c>
       <c r="N16" t="n">
-        <v>249.8084161454457</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>210.220233340163</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>160.6252099925839</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>55.05929892214692</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>47.41024194023008</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>157.5888220649825</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>231.8673127775771</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>247.7627660915995</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>249.8084161454457</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>210.220233340163</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>160.6252099925839</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>55.05929892214692</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>171.2123056344834</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>47.41024194023002</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>157.5888220649824</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>231.867312777577</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>247.7627660915995</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>249.8084161454456</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>210.220233340163</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>160.6252099925838</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>55.05929892214689</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>47.41024194023002</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>157.5888220649824</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>231.867312777577</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>247.7627660915995</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>249.8084161454456</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>210.220233340163</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
-        <v>160.6252099925838</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>55.05929892214689</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>47.41024194023002</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>157.5888220649824</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>231.867312777577</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>247.7627660915995</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>249.8084161454456</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>210.220233340163</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
-        <v>160.6252099925838</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>55.05929892214689</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>47.41024194023002</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>157.5888220649824</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>231.867312777577</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>247.7627660915995</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>249.8084161454456</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>210.220233340163</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>160.6252099925838</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.05929892214689</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>393.2623022991504</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>47.41024194023002</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>157.5888220649824</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>231.867312777577</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>247.7627660915995</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>249.8084161454456</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>210.220233340163</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
-        <v>160.6252099925838</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>55.05929892214689</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,19 +37390,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>47.41024194023002</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>157.5888220649824</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>231.867312777577</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>247.7627660915995</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>249.8084161454456</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>210.220233340163</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
-        <v>160.6252099925838</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>55.05929892214689</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236314895</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>47.41024194023002</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>157.5888220649824</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>231.867312777577</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>247.7627660915995</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>249.8084161454456</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>210.220233340163</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>160.6252099925838</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>55.05929892214689</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,19 +37864,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>433.4611020691863</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>47.41024194023002</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>157.5888220649824</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>231.867312777577</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>247.7627660915995</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>249.8084161454456</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>210.220233340163</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
-        <v>160.6252099925838</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>55.05929892214689</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>47.41024194023002</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>157.5888220649824</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>231.867312777577</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>247.7627660915995</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>249.8084161454456</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>210.220233340163</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
-        <v>160.6252099925838</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>55.05929892214689</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1432886.276209689</v>
+        <v>1436225.010438372</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12744834.49889432</v>
+        <v>13476767.25690909</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>1134222.401358594</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10677205.42277561</v>
+        <v>10311469.78615534</v>
       </c>
     </row>
     <row r="11">
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -822,16 +822,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>146.5755992117475</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>277.8312030514733</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75.4571321610379</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>201.6622187863204</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>86.10567404108015</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>63.92502798775155</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>110.1842403900303</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,10 +1150,10 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>9.858513800116516</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>55.52079624060465</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>165.9388204386841</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1776,13 +1776,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>141.3831318263065</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>115.2476646755913</v>
       </c>
     </row>
     <row r="17">
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>115.7063133373722</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>65.31126771337246</v>
       </c>
     </row>
     <row r="20">
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>136.4226250355559</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>9.146142788179874</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>101.6904320390163</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2614,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>19.91555826189108</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>65.31126771337257</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2952,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>9.14614278817986</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>160.6830674276466</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1.134144599546921</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>95.05806357631816</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>112.4093676997194</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>90.14863908058143</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>28.75188085812055</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>101.6904320390163</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>162.6602635158742</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>4.57335225133254</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4330,13 +4330,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
         <v>1573.77673900139</v>
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686084</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064759</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080138</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986312</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>385.5649387724261</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="C4" t="n">
-        <v>216.6287558445192</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218343</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
         <v>66.51211643218343</v>
@@ -4488,52 +4488,52 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S4" t="n">
-        <v>920.887005818185</v>
+        <v>772.8308449982385</v>
       </c>
       <c r="T4" t="n">
-        <v>920.887005818185</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="U4" t="n">
-        <v>640.249426978313</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="V4" t="n">
-        <v>385.5649387724261</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="W4" t="n">
-        <v>385.5649387724261</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="X4" t="n">
-        <v>385.5649387724261</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="Y4" t="n">
-        <v>385.5649387724261</v>
+        <v>551.0642295677645</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1232.150970528558</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.150970528558</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4567,13 +4567,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
@@ -4591,28 +4591,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943748</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>362.8459426266614</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C7" t="n">
-        <v>362.8459426266614</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D7" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218343</v>
@@ -4725,52 +4725,52 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R7" t="n">
-        <v>833.9115774938616</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S7" t="n">
-        <v>833.9115774938616</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T7" t="n">
-        <v>833.9115774938616</v>
+        <v>856.3162704770223</v>
       </c>
       <c r="U7" t="n">
-        <v>833.9115774938616</v>
+        <v>567.2134036026658</v>
       </c>
       <c r="V7" t="n">
-        <v>833.9115774938616</v>
+        <v>567.2134036026658</v>
       </c>
       <c r="W7" t="n">
-        <v>544.4944074569011</v>
+        <v>567.2134036026658</v>
       </c>
       <c r="X7" t="n">
-        <v>544.4944074569011</v>
+        <v>567.2134036026658</v>
       </c>
       <c r="Y7" t="n">
-        <v>544.4944074569011</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.546535481797</v>
+        <v>1197.073083428566</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363905</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678289</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3315.647726861579</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3315.647726861579</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3062.117250135415</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2731.054362791845</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2378.28570752173</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2378.28570752173</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1988.146375545919</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282754</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458823</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797189</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S13" t="n">
-        <v>2390.881471216014</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T13" t="n">
-        <v>2171.280006238955</v>
+        <v>1220.954076332894</v>
       </c>
       <c r="U13" t="n">
-        <v>1882.204779583153</v>
+        <v>1220.954076332894</v>
       </c>
       <c r="V13" t="n">
-        <v>1627.520291377266</v>
+        <v>966.2695881270071</v>
       </c>
       <c r="W13" t="n">
-        <v>1338.103121340305</v>
+        <v>966.2695881270071</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.113570442288</v>
+        <v>798.6546179869221</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.3209912987577</v>
+        <v>577.8620388433919</v>
       </c>
     </row>
     <row r="14">
@@ -5272,40 +5272,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910813</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570822</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279807</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853365</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580265</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580265</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235169</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.50678425811</v>
+        <v>1220.954076332894</v>
       </c>
       <c r="U16" t="n">
-        <v>1901.695539989114</v>
+        <v>931.8788496770917</v>
       </c>
       <c r="V16" t="n">
-        <v>1647.011051783227</v>
+        <v>677.1943614712048</v>
       </c>
       <c r="W16" t="n">
-        <v>1647.011051783227</v>
+        <v>677.1943614712048</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>677.1943614712048</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>560.7825789706076</v>
       </c>
     </row>
     <row r="17">
@@ -5497,22 +5497,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5536,13 +5536,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5606,7 +5606,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>991.7436897307817</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="C19" t="n">
-        <v>822.8075068028749</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="D19" t="n">
-        <v>672.6908673905391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="E19" t="n">
-        <v>524.777773808146</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>377.8878263102356</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>210.6917270251155</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1220.954076332894</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>931.8788496770917</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>677.1943614712048</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>387.7771914342442</v>
       </c>
       <c r="X19" t="n">
-        <v>1394.184733704551</v>
+        <v>159.7876405362269</v>
       </c>
       <c r="Y19" t="n">
-        <v>1173.392154561021</v>
+        <v>93.81666304797187</v>
       </c>
     </row>
     <row r="20">
@@ -5746,25 +5746,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5773,13 +5773,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5843,7 +5843,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>231.6172943970183</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>231.6172943970183</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>231.6172943970183</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>231.6172943970183</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1038.099241987798</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>749.0240153319962</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>749.0240153319962</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>459.6068452950356</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>231.6172943970183</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>231.6172943970183</v>
       </c>
     </row>
     <row r="23">
@@ -5986,34 +5986,34 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
         <v>4606.285157492578</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876693</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597624</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597624</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="E25" t="n">
-        <v>411.9631215597624</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1154.983098844639</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>865.9078721888367</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>611.2233839829498</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>321.8062139459892</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>93.81666304797187</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,52 +6214,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>560.7825789706076</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="C28" t="n">
-        <v>391.8463960427007</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="D28" t="n">
-        <v>241.729756630365</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="E28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R28" t="n">
-        <v>2426.846358063199</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S28" t="n">
-        <v>2243.991523718104</v>
+        <v>1374.584563821698</v>
       </c>
       <c r="T28" t="n">
-        <v>2024.390058741045</v>
+        <v>1154.983098844639</v>
       </c>
       <c r="U28" t="n">
-        <v>1735.314832085242</v>
+        <v>865.9078721888367</v>
       </c>
       <c r="V28" t="n">
-        <v>1480.630343879355</v>
+        <v>611.2233839829498</v>
       </c>
       <c r="W28" t="n">
-        <v>1191.213173842395</v>
+        <v>321.8062139459892</v>
       </c>
       <c r="X28" t="n">
-        <v>963.2236229443774</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="Y28" t="n">
-        <v>742.4310438008473</v>
+        <v>93.81666304797187</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6478,25 +6478,25 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876693</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597624</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>244.7670222746423</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>103.0551911168404</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1278.249412595158</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>989.1741859393561</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>734.4896977334693</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>734.4896977334693</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614391</v>
+        <v>734.4896977334693</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.547769317909</v>
+        <v>734.4896977334693</v>
       </c>
     </row>
     <row r="32">
@@ -6694,55 +6694,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>849.3843576263199</v>
+        <v>242.8753572359679</v>
       </c>
       <c r="C34" t="n">
-        <v>680.448174698413</v>
+        <v>242.8753572359679</v>
       </c>
       <c r="D34" t="n">
-        <v>530.3315352860773</v>
+        <v>242.8753572359679</v>
       </c>
       <c r="E34" t="n">
-        <v>382.4184417036842</v>
+        <v>94.96226365357481</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>94.96226365357481</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S34" t="n">
-        <v>2350.944837543576</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="T34" t="n">
-        <v>2131.343372566517</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="U34" t="n">
-        <v>1842.268145910715</v>
+        <v>968.6254803090551</v>
       </c>
       <c r="V34" t="n">
-        <v>1587.583657704828</v>
+        <v>713.9409921031682</v>
       </c>
       <c r="W34" t="n">
-        <v>1298.166487667867</v>
+        <v>424.5238220662076</v>
       </c>
       <c r="X34" t="n">
-        <v>1070.17693676985</v>
+        <v>424.5238220662076</v>
       </c>
       <c r="Y34" t="n">
-        <v>849.3843576263199</v>
+        <v>424.5238220662076</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>931.4710609784063</v>
+        <v>357.47811831861</v>
       </c>
       <c r="C37" t="n">
-        <v>762.5348780504994</v>
+        <v>357.47811831861</v>
       </c>
       <c r="D37" t="n">
-        <v>612.4182386381636</v>
+        <v>207.3614789062743</v>
       </c>
       <c r="E37" t="n">
-        <v>464.5051450557705</v>
+        <v>207.3614789062743</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578601</v>
+        <v>207.3614789062743</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>207.3614789062743</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>1190.65500321726</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487568</v>
+        <v>1190.65500321726</v>
       </c>
       <c r="U37" t="n">
-        <v>2106.003314093041</v>
+        <v>901.5797765614575</v>
       </c>
       <c r="V37" t="n">
-        <v>1851.318825887154</v>
+        <v>646.8952883555706</v>
       </c>
       <c r="W37" t="n">
-        <v>1561.901655850193</v>
+        <v>357.47811831861</v>
       </c>
       <c r="X37" t="n">
-        <v>1333.912104952176</v>
+        <v>357.47811831861</v>
       </c>
       <c r="Y37" t="n">
-        <v>1113.119525808646</v>
+        <v>357.47811831861</v>
       </c>
     </row>
     <row r="38">
@@ -7159,37 +7159,37 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819236</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111692</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075785</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694706</v>
@@ -7250,7 +7250,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038344</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1154.983098844639</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>865.9078721888367</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>611.2233839829498</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>321.8062139459892</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>93.81666304797186</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1084.434610906553</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1084.434610906553</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>795.0174408695923</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>567.027889971575</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>567.027889971575</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1253.081159236239</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>998.3966710303517</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>998.3966710303517</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>770.4071201323344</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>549.6145409888043</v>
       </c>
     </row>
   </sheetData>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>125.5054897610399</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>59.77083495035302</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>144.8013425629377</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>103.3369886765035</v>
       </c>
     </row>
     <row r="17">
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>24.58839950885165</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>153.2733856387223</v>
       </c>
     </row>
     <row r="20">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,13 +24138,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>8.998422987375307</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>136.2749052347514</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>115.7150182882719</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24621,7 +24621,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.45968844823058</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.715018288272</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>72.11969353038566</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>56.72238289964164</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24976,7 +24976,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>164.3899936927219</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>85.96822242532643</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>27.88534514650449</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>196.0358353086627</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>138.4949402405073</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>115.7150182882719</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>17.17171666606305</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,16 +25836,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>281.6111221379116</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>923288.5237765647</v>
+        <v>881138.6510463719</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>923288.523776565</v>
+        <v>881138.6510463719</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>923288.5237765649</v>
+        <v>881138.6510463718</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>923288.5237765647</v>
+        <v>881138.6510463718</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>923288.5237765649</v>
+        <v>881138.6510463718</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>923288.5237765647</v>
+        <v>881138.6510463718</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>923288.5237765649</v>
+        <v>881138.6510463719</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>923288.5237765649</v>
+        <v>881138.6510463717</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>923288.5237765649</v>
+        <v>881138.6510463718</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>923288.5237765649</v>
+        <v>881138.6510463718</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>923288.5237765647</v>
+        <v>881138.6510463719</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>923288.5237765649</v>
+        <v>881138.6510463719</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062538</v>
+        <v>489521.4728035396</v>
       </c>
       <c r="F2" t="n">
-        <v>504466.6248062538</v>
+        <v>489521.4728035395</v>
       </c>
       <c r="G2" t="n">
-        <v>504466.6248062536</v>
+        <v>489521.4728035396</v>
       </c>
       <c r="H2" t="n">
-        <v>504466.6248062536</v>
+        <v>489521.4728035397</v>
       </c>
       <c r="I2" t="n">
-        <v>504466.6248062536</v>
+        <v>489521.4728035396</v>
       </c>
       <c r="J2" t="n">
-        <v>504466.6248062536</v>
+        <v>489521.4728035395</v>
       </c>
       <c r="K2" t="n">
-        <v>504466.6248062538</v>
+        <v>489521.4728035396</v>
       </c>
       <c r="L2" t="n">
-        <v>504466.6248062537</v>
+        <v>489521.4728035395</v>
       </c>
       <c r="M2" t="n">
-        <v>504466.6248062536</v>
+        <v>489521.4728035395</v>
       </c>
       <c r="N2" t="n">
-        <v>504466.6248062538</v>
+        <v>489521.4728035396</v>
       </c>
       <c r="O2" t="n">
-        <v>504466.6248062538</v>
+        <v>489521.4728035397</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062539</v>
+        <v>489521.4728035397</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.209268702950794e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972775</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>93596.74410405249</v>
+      </c>
+      <c r="C4" t="n">
+        <v>93596.74410405249</v>
+      </c>
+      <c r="D4" t="n">
         <v>93596.74410405252</v>
       </c>
-      <c r="C4" t="n">
-        <v>93596.7441040525</v>
-      </c>
-      <c r="D4" t="n">
-        <v>93596.7441040525</v>
-      </c>
       <c r="E4" t="n">
-        <v>16046.58397189197</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189197</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189197</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189197</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.58397189193</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189197</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189197</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189197</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189197</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="N4" t="n">
-        <v>16046.58397189203</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="O4" t="n">
-        <v>16046.58397189197</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="P4" t="n">
-        <v>16046.58397189197</v>
+        <v>761.3882086835451</v>
       </c>
     </row>
     <row r="5">
@@ -26524,46 +26524,46 @@
         <v>-1017124.324227861</v>
       </c>
       <c r="C6" t="n">
-        <v>311620.4214997311</v>
+        <v>311620.4214997312</v>
       </c>
       <c r="D6" t="n">
-        <v>311620.4214997313</v>
+        <v>311620.4214997314</v>
       </c>
       <c r="E6" t="n">
-        <v>61537.66994874246</v>
+        <v>62130.57443014735</v>
       </c>
       <c r="F6" t="n">
-        <v>386950.1317560978</v>
+        <v>387543.0362375024</v>
       </c>
       <c r="G6" t="n">
-        <v>386950.1317560979</v>
+        <v>387543.0362375024</v>
       </c>
       <c r="H6" t="n">
-        <v>386950.1317560975</v>
+        <v>387543.0362375025</v>
       </c>
       <c r="I6" t="n">
-        <v>386950.1317560975</v>
+        <v>387543.0362375024</v>
       </c>
       <c r="J6" t="n">
-        <v>169418.9293588201</v>
+        <v>170011.8338402248</v>
       </c>
       <c r="K6" t="n">
-        <v>386950.1317560977</v>
+        <v>387543.0362375024</v>
       </c>
       <c r="L6" t="n">
-        <v>386950.1317560977</v>
+        <v>387543.0362375024</v>
       </c>
       <c r="M6" t="n">
-        <v>301895.1038205858</v>
+        <v>302488.0083019906</v>
       </c>
       <c r="N6" t="n">
-        <v>386950.1317560977</v>
+        <v>387543.0362375024</v>
       </c>
       <c r="O6" t="n">
-        <v>386950.1317560978</v>
+        <v>387543.0362375025</v>
       </c>
       <c r="P6" t="n">
-        <v>386950.1317560978</v>
+        <v>387543.0362375025</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26792,16 +26792,16 @@
         <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26810,13 +26810,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022929</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27542,16 +27542,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>43.19342611969441</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>8.380635154139554</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>307.2767095024427</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>168.0688818921486</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>2.82647862896718</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>155.6239212884176</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>272.5496012734503</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>99.32924798805932</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28517,7 +28517,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31612,7 +31612,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
         <v>609.6478166837925</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32326,10 +32326,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32563,10 +32563,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067208</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M7" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35260,7 +35260,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
         <v>478.3061046004592</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010493</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35974,10 +35974,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36211,10 +36211,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236314895</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
